--- a/STM32L053R8/_Document/Resources_draft.xlsx
+++ b/STM32L053R8/_Document/Resources_draft.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\Nucleo\STM32L053R8\Cube1.16.0\_Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\Nucleo\STM32L053R8\_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DF44-4344-4DC8-B88E-A2465993D75B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C3268-591D-4092-81A5-A27687D101EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{5898E33E-EB82-47DD-BCC8-15F2BCE71A39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Memory" sheetId="1" r:id="rId1"/>
+    <sheet name="Folder" sheetId="2" r:id="rId1"/>
+    <sheet name="Memory" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Tasks</t>
   </si>
@@ -95,6 +96,30 @@
   </si>
   <si>
     <t>TIM2(PWM:10KHz)/TIM21(PRD:1KHz)</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>app_prd.h</t>
+  </si>
+  <si>
+    <t>app_def.h</t>
+  </si>
+  <si>
+    <t>app_api.h</t>
+  </si>
+  <si>
+    <t>app_prd.c</t>
+  </si>
+  <si>
+    <t>Inc</t>
+  </si>
+  <si>
+    <t>Src</t>
   </si>
 </sst>
 </file>
@@ -496,11 +521,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0359EFD-2338-4B5B-8135-A1907456F2E5}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA99893-05EA-430D-BE23-9E5A3816F16D}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
